--- a/data/raw/guardia_2020.xlsx
+++ b/data/raw/guardia_2020.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/felipesn/Documents/R/despliegue-guardia/data/raw/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/felipesn/Documents/R/despliegue_guardia_nacional/data/raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{34CB0FD0-3B13-9F46-993D-78CE00083FF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF1C62D6-BAAA-4743-8411-1B628B9C098C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2400" yWindow="1060" windowWidth="27240" windowHeight="15940" xr2:uid="{8250D667-232F-8748-A7CA-D22FA17115D5}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
   <si>
     <t>ene</t>
   </si>
@@ -172,9 +172,6 @@
   </si>
   <si>
     <t>Zacatecas</t>
-  </si>
-  <si>
-    <t>Total mensual</t>
   </si>
 </sst>
 </file>
@@ -253,7 +250,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -269,9 +266,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -588,10 +582,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC7F9FE0-92C1-EA41-8DE1-25BD57E3205A}">
-  <dimension ref="A1:N34"/>
+  <dimension ref="A1:N33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="A34" sqref="A34:XFD34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2050,62 +2044,6 @@
       </c>
       <c r="N33" s="1">
         <v>2117</v>
-      </c>
-    </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A34" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="B34" s="1">
-        <v>2020</v>
-      </c>
-      <c r="C34" s="1">
-        <f>SUM(C2:C33)</f>
-        <v>74437</v>
-      </c>
-      <c r="D34" s="1">
-        <f t="shared" ref="D34:N34" si="0">SUM(D2:D33)</f>
-        <v>74437</v>
-      </c>
-      <c r="E34" s="1">
-        <f t="shared" si="0"/>
-        <v>81722</v>
-      </c>
-      <c r="F34" s="1">
-        <f t="shared" si="0"/>
-        <v>76773</v>
-      </c>
-      <c r="G34" s="1">
-        <f t="shared" si="0"/>
-        <v>78763</v>
-      </c>
-      <c r="H34" s="1">
-        <f t="shared" si="0"/>
-        <v>80059</v>
-      </c>
-      <c r="I34" s="1">
-        <f t="shared" si="0"/>
-        <v>96182</v>
-      </c>
-      <c r="J34" s="1">
-        <f t="shared" si="0"/>
-        <v>96182</v>
-      </c>
-      <c r="K34" s="1">
-        <f t="shared" si="0"/>
-        <v>96567</v>
-      </c>
-      <c r="L34" s="1">
-        <f t="shared" si="0"/>
-        <v>97832</v>
-      </c>
-      <c r="M34" s="1">
-        <f t="shared" si="0"/>
-        <v>98282</v>
-      </c>
-      <c r="N34" s="1">
-        <f t="shared" si="0"/>
-        <v>98282</v>
       </c>
     </row>
   </sheetData>
@@ -2219,8 +2157,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B2:B34 N2:N33">
-    <cfRule type="colorScale" priority="1">
+  <conditionalFormatting sqref="B2:B33 N2:N33">
+    <cfRule type="colorScale" priority="13">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
